--- a/Documentation/Gantt.xlsx
+++ b/Documentation/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timo Kias\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2FED7A-06F0-4913-9E22-180381D19157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059446F6-6483-431F-AC77-8CEE287BC390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>Jonas</t>
   </si>
@@ -321,154 +321,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill>
@@ -1108,15 +961,15 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1224,7 +1077,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
         <v>1</v>
@@ -1261,9 +1114,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1432,7 +1287,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
-        <f t="shared" ref="D13:D18" si="0">SUM(E14:L14)</f>
+        <f t="shared" ref="D14:D18" si="0">SUM(E14:L14)</f>
         <v>12</v>
       </c>
       <c r="E14" s="12"/>
@@ -1504,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
@@ -1529,14 +1384,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="9"/>
@@ -1545,14 +1400,14 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L18" s="9"/>
       <c r="N18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -1565,7 +1420,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1583,13 +1438,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6">
-        <f t="shared" ref="D20:D22" si="1">SUM(E21:L21)</f>
+        <f t="shared" ref="D21:D22" si="1">SUM(E21:L21)</f>
         <v>6</v>
       </c>
       <c r="E21" s="12"/>
@@ -1609,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
@@ -1640,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -1653,7 +1508,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1674,13 +1529,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6">
-        <f t="shared" ref="D24:D27" si="2">SUM(E25:L25)</f>
+        <f t="shared" ref="D25:D27" si="2">SUM(E25:L25)</f>
         <v>6</v>
       </c>
       <c r="E25" s="12"/>
@@ -1703,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1731,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1764,7 +1619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
@@ -1777,7 +1632,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1800,8 +1655,11 @@
       <c r="P29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
@@ -1826,7 +1684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>39</v>
       </c>
@@ -1851,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
@@ -1908,6 +1766,9 @@
       <c r="N34" t="s">
         <v>15</v>
       </c>
+      <c r="O34" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -1985,6 +1846,9 @@
       <c r="N38" t="s">
         <v>15</v>
       </c>
+      <c r="O38" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
@@ -2074,7 +1938,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" ref="D42:D44" si="4">SUM(E43:L43)</f>
+        <f t="shared" ref="D43:D44" si="4">SUM(E43:L43)</f>
         <v>30</v>
       </c>
       <c r="E43" s="12"/>
@@ -2112,12 +1976,14 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="J44" s="8">
+        <v>10</v>
+      </c>
       <c r="K44" s="8">
         <v>15</v>
       </c>
       <c r="L44" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N44" t="s">
         <v>15</v>
@@ -2128,40 +1994,40 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D45">
-        <f>SUM(D4:D44)</f>
-        <v>266</v>
+        <f t="shared" ref="D45:L45" si="5">SUM(D4:D44)</f>
+        <v>272</v>
       </c>
       <c r="E45">
-        <f>SUM(E4:E44)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F45">
-        <f>SUM(F4:F44)</f>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="G45">
-        <f>SUM(G4:G44)</f>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="H45">
-        <f>SUM(H4:H44)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="I45">
-        <f>SUM(I4:I44)</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="J45">
-        <f>SUM(J4:J44)</f>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="K45">
-        <f>SUM(K4:K44)</f>
-        <v>32</v>
+        <f t="shared" si="5"/>
+        <v>38</v>
       </c>
       <c r="L45">
-        <f>SUM(L4:L44)</f>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -2213,18 +2079,29 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N4:N5 N28 N33 N37 N41 N45 N7 N23 N19 N10 N12">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+  <conditionalFormatting sqref="N5 N28 N33 N37 N41 N45 N7 N23 N19 N10 N12">
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="77" operator="equal">
       <formula>"open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="78" operator="equal">
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>"in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43:N44">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2235,7 +2112,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N43:N44">
+  <conditionalFormatting sqref="N38:N40">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2246,7 +2123,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N40">
+  <conditionalFormatting sqref="N34:N36">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2257,7 +2134,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N36">
+  <conditionalFormatting sqref="N29:N32">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2268,7 +2145,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29:N32">
+  <conditionalFormatting sqref="N26:N27">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2279,7 +2156,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N27">
+  <conditionalFormatting sqref="N24:N25">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2290,7 +2167,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N25">
+  <conditionalFormatting sqref="N20:N21">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2301,7 +2178,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N21">
+  <conditionalFormatting sqref="N15">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2312,7 +2189,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2323,7 +2200,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="N6">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2334,7 +2211,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
+  <conditionalFormatting sqref="N22">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2345,7 +2222,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
+  <conditionalFormatting sqref="N16:N18">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2356,7 +2233,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N18">
+  <conditionalFormatting sqref="N13:N14">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2367,7 +2244,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N14">
+  <conditionalFormatting sqref="N11">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2378,7 +2255,7 @@
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
@@ -2393,7 +2270,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O42:Q44 O38:Q40 O34:Q36 O29:Q32 O24:Q27 O11:Q11 O20:Q22 O13:Q18 O8:Q9 O6:Q6 O4:Q4" xr:uid="{568AF9D7-8A8F-44D4-B81E-78E2A048FC58}">
       <formula1>$B$50:$B$55</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42:N44 N38:N40 N34:N36 N29:N32 N24:N27 N20:N22 N8:N9 N6 N13:N18 N11" xr:uid="{3289734E-28FE-48A6-AB31-EC212F942F91}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42:N44 N38:N40 N34:N36 N29:N32 N24:N27 N20:N22 N8:N9 N6 N13:N18 N11 N4" xr:uid="{3289734E-28FE-48A6-AB31-EC212F942F91}">
       <formula1>$B$57:$B$59</formula1>
     </dataValidation>
   </dataValidations>
